--- a/GPIO/RH850D1M1H_176Pin_IO_Config_1.xlsx
+++ b/GPIO/RH850D1M1H_176Pin_IO_Config_1.xlsx
@@ -1135,6 +1135,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1533,7 +1534,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1814,10 +1815,10 @@
   <dimension ref="A1:AH187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="I64" sqref="I64"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2360,7 +2361,7 @@
         <v>185</v>
       </c>
       <c r="D12" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="26">
         <v>1</v>
@@ -2369,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="26">
         <v>0</v>
@@ -2381,13 +2382,13 @@
         <v>0</v>
       </c>
       <c r="K12" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="26">
         <v>0</v>
       </c>
       <c r="M12" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="26">
         <v>0</v>
